--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D51145-534D-4D4A-9AE1-789D5EEEDBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F41EEA5-F9E0-44F9-A31E-EDC4951E6D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels_ELC" sheetId="1" r:id="rId1"/>
@@ -1377,10 +1377,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1770,7 +1769,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
@@ -3807,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4364,7 +4363,7 @@
         <v>0.4</v>
       </c>
       <c r="M14" s="43">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N14" s="14"/>
       <c r="P14" s="14">
@@ -5490,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17BA09-D62E-4FF5-A859-9DF747FE7B8C}">
   <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F41EEA5-F9E0-44F9-A31E-EDC4951E6D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6AE8E-5199-471F-BADB-ECEDE0573E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3806,8 +3806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4346,7 +4346,7 @@
         <v>2022</v>
       </c>
       <c r="G14" s="65">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="43">
         <v>0.4929</v>

--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED6AE8E-5199-471F-BADB-ECEDE0573E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE96FD-5721-4DEA-9099-734EC6B39842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels_ELC" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
   <si>
     <t>Sector Name</t>
   </si>
@@ -960,9 +960,6 @@
   </si>
   <si>
     <t>Electricity Plants Wind Energy Onshore</t>
-  </si>
-  <si>
-    <t>Electricity Plants Wind Energy Offshore</t>
   </si>
   <si>
     <t>Electricity Plants Solar Energy</t>
@@ -1371,6 +1368,45 @@
   </si>
   <si>
     <t>Carbon dioxide emissions due to Electricity generation</t>
+  </si>
+  <si>
+    <t>For the sake of addition of cells</t>
+  </si>
+  <si>
+    <t>WINOFF15</t>
+  </si>
+  <si>
+    <t>WINOFF25</t>
+  </si>
+  <si>
+    <t>WINOFF35</t>
+  </si>
+  <si>
+    <t>WINOFF45</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 15 m</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 25 m</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 35 m</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 45 m</t>
+  </si>
+  <si>
+    <t>kg CO2/GJ</t>
+  </si>
+  <si>
+    <t>kg CO2/PJ</t>
+  </si>
+  <si>
+    <t>kt CO2/PJ</t>
+  </si>
+  <si>
+    <t>So, that's very close.</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1583,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,6 +1651,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1738,7 +1780,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1771,8 +1813,28 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1912,22 +1974,28 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="28" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="28" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="52">
     <cellStyle name="20 % - Farve5" xfId="4" builtinId="46"/>
+    <cellStyle name="20 % - Farve5 2" xfId="36" xr:uid="{246CBBAD-D0AD-42E8-9B36-0C9B53013911}"/>
+    <cellStyle name="20 % - Farve5 3" xfId="46" xr:uid="{16007BEB-DA05-42CE-83CE-43B5820000C6}"/>
+    <cellStyle name="20 % - Farve5 4" xfId="51" xr:uid="{E5ABB85E-52E2-4782-88CC-C44B3BA4BCD7}"/>
     <cellStyle name="60 % - Farve2 2" xfId="29" xr:uid="{6962D5AB-DB5F-4149-84F0-5B6DA4492FAC}"/>
     <cellStyle name="Comma 2" xfId="8" xr:uid="{7F9F721F-8D2D-401E-9391-67D3C397F9EA}"/>
     <cellStyle name="Comma 2 2" xfId="30" xr:uid="{6F9798B2-8926-4AED-9259-F203CE178010}"/>
+    <cellStyle name="Comma 2 2 2" xfId="33" xr:uid="{17A4CBB2-7434-4E8E-8A2B-1B1027C4F1E8}"/>
+    <cellStyle name="Comma 2 3" xfId="32" xr:uid="{11149DD1-B2DD-4344-9DB0-063A9F0E0D9E}"/>
     <cellStyle name="Farve2" xfId="3" builtinId="33"/>
     <cellStyle name="God" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -1935,13 +2003,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="5" xr:uid="{5ACBF25E-076D-40F4-B8C4-C2ECF8E6B326}"/>
     <cellStyle name="Normal 2" xfId="10" xr:uid="{EE76ED0B-5B06-43F3-89AB-6D32942C9170}"/>
+    <cellStyle name="Normal 2 2 2" xfId="42" xr:uid="{D9B9DB1E-36FE-402C-8EB0-A38821CE53B6}"/>
+    <cellStyle name="Normal 2 3" xfId="41" xr:uid="{425328C6-6309-4876-B9AA-1822273746CC}"/>
     <cellStyle name="Normal 3" xfId="28" xr:uid="{0D2CA9BC-A2C6-4A02-A2C1-9E3572E5461B}"/>
+    <cellStyle name="Normal 3 10" xfId="43" xr:uid="{64588411-9455-41A7-8B97-E8E7C2CD95CD}"/>
+    <cellStyle name="Normal 3 2" xfId="39" xr:uid="{694F23AD-E704-47F2-B87E-D5BB6237ACD0}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="40" xr:uid="{D489EFE1-0C69-4A28-BE8A-E0A2F3A5BA48}"/>
+    <cellStyle name="Normal 3 3" xfId="48" xr:uid="{79BBB6CA-C387-4089-965D-89761C1C5EDB}"/>
+    <cellStyle name="Normal 3 4" xfId="38" xr:uid="{5879CBEB-42AD-4187-AAFE-CA0537B76AB4}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{A77B035C-28CB-4B69-847D-DB97D7960A30}"/>
+    <cellStyle name="Normal 4 10" xfId="44" xr:uid="{DC6204E6-C853-4706-8FAA-D3ED2A258C49}"/>
     <cellStyle name="Normal 4 2" xfId="7" xr:uid="{526350E6-4026-494E-A2D4-11B1F5F70C60}"/>
+    <cellStyle name="Normal 5" xfId="45" xr:uid="{8B051B88-553A-4766-9276-BDD72AED10DE}"/>
+    <cellStyle name="Normal 6" xfId="50" xr:uid="{1148C2E1-0BF3-4C71-8D86-0BAFE2A6B50D}"/>
     <cellStyle name="Normal 8" xfId="11" xr:uid="{5E2915F8-ABD1-449A-A971-A392DC04F85E}"/>
+    <cellStyle name="Normal 8 2" xfId="37" xr:uid="{9EE70EA2-7203-4B17-BCC1-9EE64B114099}"/>
+    <cellStyle name="Normal 8 3" xfId="47" xr:uid="{5BB99AC9-308A-444D-ADB2-F72DFFC836BA}"/>
     <cellStyle name="Normal 9 2" xfId="12" xr:uid="{76C2A144-BDAD-487A-A8B0-5DFDE14DE249}"/>
     <cellStyle name="Normale_B2020" xfId="13" xr:uid="{4621A556-8287-48AC-B294-B83AD4DDB20B}"/>
     <cellStyle name="Percent 2" xfId="15" xr:uid="{7F7EB962-1E72-41DF-A51F-07617E904F12}"/>
+    <cellStyle name="Percent 2 2" xfId="34" xr:uid="{FA80CB23-AA59-46CB-B1E8-3049FF9B5F32}"/>
     <cellStyle name="Percent 3" xfId="16" xr:uid="{823BA716-FAF4-4B3D-8174-5BFFD1F25831}"/>
     <cellStyle name="Percent 3 2" xfId="17" xr:uid="{24E7B526-93B8-4311-9AD0-91AE681323FD}"/>
     <cellStyle name="Percent 3 3" xfId="18" xr:uid="{7ED6426C-FB6D-4220-ACA7-B6518AC5E8D9}"/>
@@ -1951,10 +2032,12 @@
     <cellStyle name="Percent 4 3" xfId="22" xr:uid="{E88E654A-95D9-4F97-BE41-616608DC48A5}"/>
     <cellStyle name="Percent 4 4" xfId="23" xr:uid="{967BD764-E4A5-492D-A933-739C6039E261}"/>
     <cellStyle name="Percent 5" xfId="24" xr:uid="{E63C74B0-0C8A-4A29-A922-2AB12511021C}"/>
+    <cellStyle name="Percent 5 2" xfId="35" xr:uid="{EB3F1C42-42FC-4ED6-B8BC-258187D384CC}"/>
     <cellStyle name="Percent 6" xfId="25" xr:uid="{9EDC1CC5-9C3D-4B32-ABE2-694AA1F83E05}"/>
     <cellStyle name="Percent 7" xfId="26" xr:uid="{DFA74129-AFBC-42C4-87AD-5C8DEB730E27}"/>
     <cellStyle name="Procent 2" xfId="14" xr:uid="{988235DE-0BAC-4219-B9B7-F18BA187F1FE}"/>
     <cellStyle name="Procent 3" xfId="31" xr:uid="{0EDB97F6-6838-43E2-A6C5-12ADE14F0746}"/>
+    <cellStyle name="Procent 3 2" xfId="49" xr:uid="{249C3E82-7BCB-4205-93F8-4A6DB571C010}"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="27" xr:uid="{0F997D81-84B2-4996-B9E3-066537BB0ABE}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1976,14 +2059,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1998,8 +2081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="4617720"/>
-          <a:ext cx="2849880" cy="899160"/>
+          <a:off x="7620" y="6073140"/>
+          <a:ext cx="3200400" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2678,10 +2761,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2696,8 +2779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="2186940"/>
-          <a:ext cx="4419600" cy="569595"/>
+          <a:off x="609600" y="2324100"/>
+          <a:ext cx="5791200" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +2860,111 @@
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>https://en.energinet.dk/media/nkmdwnwb/co2-emission-factor.pdf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Energinet - not using Biomethane, as this is already part of the natural circuit. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK"/>
+            <a:t>The CO2 emission factor is calculated from the lower calorific value and under the assumption of 100% combustion. Natural gas has an emission factor of around 55 kg CO2/GJ_lower.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="da-DK" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="da-DK" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Which is calculated to the side:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
             </a:solidFill>
@@ -2855,11 +3042,6 @@
         <row r="5">
           <cell r="J5" t="str">
             <v>WINON</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6" t="str">
-            <v>WINOFF</v>
           </cell>
         </row>
         <row r="7">
@@ -3137,25 +3319,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="7.109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
     <col min="14" max="14" width="61.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.109375" customWidth="1"/>
     <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -3164,7 +3348,7 @@
     <col min="19" max="19" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3371,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3202,7 +3386,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -3222,9 +3406,9 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K3" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
@@ -3250,8 +3434,11 @@
       <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3287,8 +3474,11 @@
       <c r="S4" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
@@ -3314,8 +3504,11 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W5" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
@@ -3325,98 +3518,89 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="str">
-        <f>$B$2&amp;[2]Pri_RNW!$J$6</f>
-        <v>ELCWINOFF</v>
+        <f>$B$2&amp;W4</f>
+        <v>ELCWINOFF15</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" ref="O6:O7" si="0">$D$2</f>
+        <f t="shared" ref="O6:O10" si="0">$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W6" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
       <c r="M7" s="12" t="str">
-        <f>$B$2&amp;[2]Pri_RNW!$J$7</f>
-        <v>ELCSOL</v>
+        <f t="shared" ref="M7:M9" si="1">$B$2&amp;W5</f>
+        <v>ELCWINOFF25</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="W7" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
       <c r="M8" s="12" t="str">
-        <f>$B$2&amp;[1]EB1!$E$2</f>
-        <v>ELCGAS</v>
-      </c>
-      <c r="N8" s="13" t="str">
-        <f>$C$2&amp;" "&amp;[1]EB1!$E$3</f>
-        <v>Sector Fuel Natural Gas</v>
+        <f t="shared" si="1"/>
+        <v>ELCWINOFF35</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="O8" s="12" t="str">
-        <f>$D$2</f>
+        <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="K9" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="O9" s="82" t="s">
-        <v>100</v>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>ELCWINOFF45</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PJ</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -3425,15 +3609,23 @@
       <c r="I10" s="11"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="12" t="str">
+        <f>$B$2&amp;[2]Pri_RNW!$J$7</f>
+        <v>ELCSOL</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>PJ</v>
+      </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
@@ -3442,30 +3634,53 @@
       <c r="I11" s="11"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
+      <c r="M11" s="12" t="str">
+        <f>$B$2&amp;[1]EB1!$E$2</f>
+        <v>ELCGAS</v>
+      </c>
+      <c r="N11" s="13" t="str">
+        <f>$C$2&amp;" "&amp;[1]EB1!$E$3</f>
+        <v>Sector Fuel Natural Gas</v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f>$D$2</f>
+        <v>PJ</v>
+      </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="79" t="s">
+        <v>99</v>
+      </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M13" s="14"/>
       <c r="N13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
@@ -3483,7 +3698,7 @@
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
@@ -3500,13 +3715,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H15" s="79" t="s">
-        <v>87</v>
+        <v>172</v>
+      </c>
+      <c r="H15" s="80" t="s">
+        <v>86</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>34</v>
@@ -3536,7 +3751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>41</v>
       </c>
@@ -3556,7 +3771,7 @@
       <c r="G16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="80"/>
+      <c r="H16" s="81"/>
       <c r="K16" s="9" t="s">
         <v>47</v>
       </c>
@@ -3598,7 +3813,7 @@
         <f>E2&amp;"a"</f>
         <v>M€2022a</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="K17" s="9" t="s">
         <v>56</v>
       </c>
@@ -3664,15 +3879,15 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="str">
         <f>M19</f>
-        <v>FTE-ELCWINOFF</v>
+        <v>FTE-ELCWINOFF15</v>
       </c>
       <c r="B19" t="str">
-        <f>RIGHT(C19,6)</f>
-        <v>WINOFF</v>
+        <f>RIGHT(C19,8)</f>
+        <v>WINOFF15</v>
       </c>
       <c r="C19" s="24" t="str">
         <f>M6</f>
-        <v>ELCWINOFF</v>
+        <v>ELCWINOFF15</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="25">
@@ -3690,19 +3905,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="24"/>
       <c r="M19" s="12" t="str">
-        <f>"FTE"&amp;$J$2&amp;"-"&amp;M6</f>
-        <v>FTE-ELCWINOFF</v>
+        <f>"FT"&amp;$F$2&amp;"-"&amp;M6</f>
+        <v>FTE-ELCWINOFF15</v>
       </c>
       <c r="N19" s="13" t="str">
         <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N6</f>
-        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore</v>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 15 m</v>
       </c>
       <c r="O19" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P19" s="12" t="str">
-        <f t="shared" ref="P19:P20" si="1">$D$2&amp;"a"</f>
+        <f t="shared" ref="P19:P23" si="2">$D$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="Q19" s="12"/>
@@ -3711,18 +3926,17 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="str">
-        <f>M20</f>
-        <v>FTE-ELCSOL</v>
+        <f t="shared" ref="A20:A22" si="3">M20</f>
+        <v>FTE-ELCWINOFF25</v>
       </c>
       <c r="B20" t="str">
-        <f>RIGHT(C20,3)</f>
-        <v>SOL</v>
+        <f t="shared" ref="B20:B22" si="4">RIGHT(C20,8)</f>
+        <v>WINOFF25</v>
       </c>
       <c r="C20" s="24" t="str">
-        <f>M7</f>
-        <v>ELCSOL</v>
-      </c>
-      <c r="D20" s="10"/>
+        <f t="shared" ref="C20:C22" si="5">M7</f>
+        <v>ELCWINOFF25</v>
+      </c>
       <c r="E20" s="25">
         <v>1</v>
       </c>
@@ -3738,61 +3952,188 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="12" t="str">
-        <f>"FTE"&amp;$J$2&amp;"-"&amp;M7</f>
+        <f t="shared" ref="M20:M22" si="6">"FT"&amp;$F$2&amp;"-"&amp;M7</f>
+        <v>FTE-ELCWINOFF25</v>
+      </c>
+      <c r="N20" s="13" t="str">
+        <f t="shared" ref="N20:N22" si="7">$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 25 m</v>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f t="shared" ref="O20:O22" si="8">$D$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="P20" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>PJa</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>FTE-ELCWINOFF35</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="4"/>
+        <v>WINOFF35</v>
+      </c>
+      <c r="C21" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>ELCWINOFF35</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="25">
+        <v>100</v>
+      </c>
+      <c r="M21" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>FTE-ELCWINOFF35</v>
+      </c>
+      <c r="N21" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 35 m</v>
+      </c>
+      <c r="O21" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>PJ</v>
+      </c>
+      <c r="P21" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>PJa</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>FTE-ELCWINOFF45</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="4"/>
+        <v>WINOFF45</v>
+      </c>
+      <c r="C22" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>ELCWINOFF45</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2021</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="25">
+        <v>100</v>
+      </c>
+      <c r="M22" s="12" t="str">
+        <f t="shared" si="6"/>
+        <v>FTE-ELCWINOFF45</v>
+      </c>
+      <c r="N22" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 45 m</v>
+      </c>
+      <c r="O22" s="12" t="str">
+        <f t="shared" si="8"/>
+        <v>PJ</v>
+      </c>
+      <c r="P22" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>PJa</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="str">
+        <f>M23</f>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="N20" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
+      <c r="B23" t="str">
+        <f>RIGHT(C23,3)</f>
+        <v>SOL</v>
+      </c>
+      <c r="C23" s="24" t="str">
+        <f>M10</f>
+        <v>ELCSOL</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="25">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2021</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="25">
+        <v>100</v>
+      </c>
+      <c r="M23" s="12" t="str">
+        <f>"FTE"&amp;$J$2&amp;"-"&amp;M10</f>
+        <v>FTE-ELCSOL</v>
+      </c>
+      <c r="N23" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N10</f>
         <v>Sector Fuel Technology  Electricity Plants Solar Energy</v>
       </c>
-      <c r="O20" s="12" t="str">
+      <c r="O23" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="P20" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="P23" s="12" t="str">
+        <f t="shared" si="2"/>
         <v>PJa</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>M21</f>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>M24</f>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="B21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="12" t="str">
-        <f>M8</f>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>M11</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E24" s="25">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>2021</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G24" s="10">
         <v>1000</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H24" s="25">
         <v>100</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M24" t="s">
+        <v>161</v>
+      </c>
+      <c r="N24" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;N11</f>
+        <v>Sector Fuel Technology Existing Sector Fuel Natural Gas</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s">
         <v>162</v>
-      </c>
-      <c r="N21" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;N8</f>
-        <v>Sector Fuel Technology Existing Sector Fuel Natural Gas</v>
-      </c>
-      <c r="O21" t="s">
-        <v>59</v>
-      </c>
-      <c r="P21" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3806,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,7 +4181,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3896,22 +4237,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -3928,25 +4269,25 @@
         <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -3987,7 +4328,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>9</v>
@@ -4017,19 +4358,19 @@
     <row r="6" spans="1:26" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="8"/>
@@ -4073,19 +4414,19 @@
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="8"/>
@@ -4106,16 +4447,16 @@
         <v>58</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5" t="s">
@@ -4193,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>32</v>
@@ -4205,28 +4546,28 @@
         <v>33</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="L11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="M11" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="N11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="Q11" s="36"/>
     </row>
@@ -4244,34 +4585,34 @@
       <c r="E12" s="20"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="K12" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="L12" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="M12" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N12" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="N12" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="O12" s="37" t="s">
+      <c r="P12" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>95</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="39"/>
@@ -4287,30 +4628,30 @@
       <c r="E13" s="21"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
       <c r="J13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="L13" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="M13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="40" t="s">
+      <c r="N13" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>100</v>
-      </c>
       <c r="P13" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="4" t="s">
@@ -4332,7 +4673,7 @@
         <v>ELCTEGAS00</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>Sector_Fuels_ELC!$C$21</f>
+        <f>Sector_Fuels_ELC!$C$24</f>
         <v>ELCGAS</v>
       </c>
       <c r="D14" s="24" t="str">
@@ -4460,11 +4801,11 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" t="str">
-        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$M$8,3)&amp;"00"</f>
+        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$M$11,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
       <c r="U16" t="str">
@@ -4472,7 +4813,7 @@
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -4560,7 +4901,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="14"/>
       <c r="I21" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
@@ -4571,23 +4912,23 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="V21" s="12" t="s">
         <v>59</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
@@ -4602,7 +4943,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
@@ -4613,16 +4954,16 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="T22" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U22" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="V22" s="12" t="s">
         <v>59</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X22" s="12"/>
     </row>
@@ -4636,7 +4977,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
@@ -4647,16 +4988,16 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="T23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="V23" s="12" t="s">
         <v>59</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X23" s="12"/>
     </row>
@@ -4670,7 +5011,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -4691,7 +5032,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -4785,7 +5126,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
@@ -4806,11 +5147,11 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="55"/>
       <c r="K31" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -4832,17 +5173,17 @@
         <v>2000000</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" s="48">
         <v>1200000</v>
       </c>
       <c r="L32" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O32" s="49"/>
       <c r="P32" s="50"/>
@@ -4862,18 +5203,18 @@
         <v>2</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K33" s="48">
         <f>K32/10^6</f>
         <v>1.2</v>
       </c>
       <c r="L33" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M33" s="49"/>
       <c r="N33" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O33" s="49"/>
       <c r="P33" s="50"/>
@@ -4893,14 +5234,14 @@
         <v>2000</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" s="48">
         <f>K33*1000</f>
         <v>1200</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
@@ -4918,11 +5259,11 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J35" s="55"/>
       <c r="K35" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35" s="55"/>
       <c r="M35" s="55"/>
@@ -4945,18 +5286,18 @@
         <v>81</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36" s="55">
         <f>23424</f>
         <v>23424</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
@@ -4976,18 +5317,18 @@
         <v>71.05263157894737</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K37" s="55">
         <f>K36/10^6</f>
         <v>2.3424E-2</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M37" s="55"/>
       <c r="N37" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
@@ -5007,18 +5348,18 @@
         <v>71.05263157894737</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K38" s="55">
         <f>K37*1000</f>
         <v>23.423999999999999</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M38" s="55"/>
       <c r="N38" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
@@ -5038,18 +5379,18 @@
         <v>#REF!</v>
       </c>
       <c r="J39" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" s="55" t="e">
         <f>K38/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M39" s="55"/>
       <c r="N39" s="49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
@@ -5065,16 +5406,16 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O40" s="55"/>
       <c r="P40" s="57">
@@ -5172,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
@@ -5186,7 +5527,7 @@
         <v>18.82</v>
       </c>
       <c r="S45" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T45" s="14"/>
     </row>
@@ -5204,7 +5545,7 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="J46" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K46" s="49"/>
       <c r="L46" s="49"/>
@@ -5218,7 +5559,7 @@
         <v>18820000</v>
       </c>
       <c r="S46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5235,7 +5576,7 @@
         <v>277777.777777777</v>
       </c>
       <c r="J47" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -5249,7 +5590,7 @@
         <v>18.82</v>
       </c>
       <c r="S47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -5266,10 +5607,10 @@
         <v>1.1944444444444411</v>
       </c>
       <c r="J48" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K48" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
@@ -5288,11 +5629,11 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J49" s="55"/>
       <c r="K49" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
@@ -5314,10 +5655,10 @@
         <v>0.21</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L50" s="49"/>
       <c r="M50" s="49"/>
@@ -5340,10 +5681,10 @@
         <v>210</v>
       </c>
       <c r="J51" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
@@ -5366,18 +5707,18 @@
         <v>210000</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52" s="49">
         <f>0.45</f>
         <v>0.45</v>
       </c>
       <c r="L52" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M52" s="49"/>
       <c r="N52" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="49"/>
       <c r="P52" s="50"/>
@@ -5397,14 +5738,14 @@
         <v>210000000</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K53" s="49">
         <f>K52*1000</f>
         <v>450</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M53" s="49"/>
       <c r="N53" s="49"/>
@@ -5426,7 +5767,7 @@
         <v>210</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
@@ -5446,7 +5787,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -5459,7 +5800,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I56" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J56" s="55"/>
       <c r="K56" s="55"/>
@@ -5487,10 +5828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17BA09-D62E-4FF5-A859-9DF747FE7B8C}">
-  <dimension ref="B3:J24"/>
+  <dimension ref="B3:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5498,9 +5839,9 @@
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -5511,7 +5852,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -5519,18 +5860,18 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="69"/>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="70" t="str">
-        <f>Sector_Fuels_ELC!M8</f>
+        <f>Sector_Fuels_ELC!M11</f>
         <v>ELCGAS</v>
       </c>
       <c r="E6" s="71"/>
@@ -5538,41 +5879,158 @@
       <c r="G6" s="71"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="str">
         <f>[1]Con_ELC!$V$6</f>
         <v>ELCCO2</v>
       </c>
       <c r="C8" s="73">
-        <v>56.1</v>
+        <v>55</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
       <c r="G8" s="74"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L13" s="83">
+        <f>55</f>
+        <v>55</v>
+      </c>
+      <c r="M13" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L14" s="83">
+        <f>L13/(1*10^-6)</f>
+        <v>55000000</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L15" s="83">
+        <f>L14/10^6</f>
+        <v>55</v>
+      </c>
+      <c r="M15" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L16" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="75"/>
       <c r="C23" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>

--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DE96FD-5721-4DEA-9099-734EC6B39842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD4FDB-1174-4FD0-BFFB-D8C0C3677DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels_ELC" sheetId="1" r:id="rId1"/>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="204">
   <si>
     <t>Sector Name</t>
   </si>
@@ -1385,18 +1385,6 @@
     <t>WINOFF45</t>
   </si>
   <si>
-    <t>Electricity Plants Wind Energy Offshore 15 m</t>
-  </si>
-  <si>
-    <t>Electricity Plants Wind Energy Offshore 25 m</t>
-  </si>
-  <si>
-    <t>Electricity Plants Wind Energy Offshore 35 m</t>
-  </si>
-  <si>
-    <t>Electricity Plants Wind Energy Offshore 45 m</t>
-  </si>
-  <si>
     <t>kg CO2/GJ</t>
   </si>
   <si>
@@ -1407,6 +1395,42 @@
   </si>
   <si>
     <t>So, that's very close.</t>
+  </si>
+  <si>
+    <t>FTE-ELCWINOFF8</t>
+  </si>
+  <si>
+    <t>FTE-ELCWINOFF20</t>
+  </si>
+  <si>
+    <t>FTE-ELCWINOFF30</t>
+  </si>
+  <si>
+    <t>WINOFF8</t>
+  </si>
+  <si>
+    <t>WINOFF20</t>
+  </si>
+  <si>
+    <t>WINOFF30</t>
+  </si>
+  <si>
+    <t>ELCWINOFF8</t>
+  </si>
+  <si>
+    <t>ELCWINOFF20</t>
+  </si>
+  <si>
+    <t>ELCWINOFF30</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 8,4 WTG</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 20 WTG</t>
+  </si>
+  <si>
+    <t>Electricity Plants Wind Energy Offshore 30 WTG</t>
   </si>
 </sst>
 </file>
@@ -3319,10 +3343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,12 +3541,11 @@
       <c r="I6" s="11"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="12" t="str">
-        <f>$B$2&amp;W4</f>
-        <v>ELCWINOFF15</v>
+      <c r="M6" t="s">
+        <v>198</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" ref="O6:O10" si="0">$D$2</f>
@@ -3543,12 +3566,11 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="M7" s="12" t="str">
-        <f t="shared" ref="M7:M9" si="1">$B$2&amp;W5</f>
-        <v>ELCWINOFF25</v>
+      <c r="M7" t="s">
+        <v>199</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3565,12 +3587,11 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>ELCWINOFF35</v>
+      <c r="M8" t="s">
+        <v>200</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3584,12 +3605,14 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>ELCWINOFF45</v>
+        <f>$B$2&amp;[2]Pri_RNW!$J$7</f>
+        <v>ELCSOL</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3610,14 +3633,15 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12" t="str">
-        <f>$B$2&amp;[2]Pri_RNW!$J$7</f>
-        <v>ELCSOL</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>61</v>
+        <f>$B$2&amp;[1]EB1!$E$2</f>
+        <v>ELCGAS</v>
+      </c>
+      <c r="N10" s="13" t="str">
+        <f>$C$2&amp;" "&amp;[1]EB1!$E$3</f>
+        <v>Sector Fuel Natural Gas</v>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P10" s="12"/>
@@ -3632,19 +3656,18 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12" t="str">
-        <f>$B$2&amp;[1]EB1!$E$2</f>
-        <v>ELCGAS</v>
-      </c>
-      <c r="N11" s="13" t="str">
-        <f>$C$2&amp;" "&amp;[1]EB1!$E$3</f>
-        <v>Sector Fuel Natural Gas</v>
-      </c>
-      <c r="O11" s="12" t="str">
-        <f>$D$2</f>
-        <v>PJ</v>
+      <c r="K11" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="N11" s="79" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="79" t="s">
+        <v>99</v>
       </c>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
@@ -3658,19 +3681,6 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="K12" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="79" t="s">
-        <v>99</v>
-      </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
@@ -3877,47 +3887,43 @@
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="str">
-        <f>M19</f>
-        <v>FTE-ELCWINOFF15</v>
-      </c>
-      <c r="B19" t="str">
-        <f>RIGHT(C19,8)</f>
-        <v>WINOFF15</v>
-      </c>
-      <c r="C19" s="24" t="str">
-        <f>M6</f>
-        <v>ELCWINOFF15</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="25">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
         <v>2021</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19">
         <v>100</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="24"/>
       <c r="M19" s="12" t="str">
         <f>"FT"&amp;$F$2&amp;"-"&amp;M6</f>
-        <v>FTE-ELCWINOFF15</v>
+        <v>FTE-ELCWINOFF8</v>
       </c>
       <c r="N19" s="13" t="str">
         <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N6</f>
-        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 15 m</v>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 8,4 WTG</v>
       </c>
       <c r="O19" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P19" s="12" t="str">
-        <f t="shared" ref="P19:P23" si="2">$D$2&amp;"a"</f>
+        <f t="shared" ref="P19:P23" si="1">$D$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="Q19" s="12"/>
@@ -3925,104 +3931,99 @@
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="str">
-        <f t="shared" ref="A20:A22" si="3">M20</f>
-        <v>FTE-ELCWINOFF25</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" ref="B20:B22" si="4">RIGHT(C20,8)</f>
-        <v>WINOFF25</v>
-      </c>
-      <c r="C20" s="24" t="str">
-        <f t="shared" ref="C20:C22" si="5">M7</f>
-        <v>ELCWINOFF25</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
         <v>2021</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20">
         <v>100</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="12" t="str">
-        <f t="shared" ref="M20:M22" si="6">"FT"&amp;$F$2&amp;"-"&amp;M7</f>
-        <v>FTE-ELCWINOFF25</v>
+        <f t="shared" ref="M20:M22" si="2">"FT"&amp;$F$2&amp;"-"&amp;M7</f>
+        <v>FTE-ELCWINOFF20</v>
       </c>
       <c r="N20" s="13" t="str">
-        <f t="shared" ref="N20:N22" si="7">$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
-        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 25 m</v>
+        <f t="shared" ref="N20:N22" si="3">$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 20 WTG</v>
       </c>
       <c r="O20" s="12" t="str">
-        <f t="shared" ref="O20:O22" si="8">$D$2</f>
+        <f t="shared" ref="O20:O22" si="4">$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P20" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>PJa</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCWINOFF35</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="4"/>
-        <v>WINOFF35</v>
-      </c>
-      <c r="C21" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v>ELCWINOFF35</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
         <v>2021</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21">
         <v>100</v>
       </c>
       <c r="M21" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>FTE-ELCWINOFF35</v>
+        <f t="shared" si="2"/>
+        <v>FTE-ELCWINOFF30</v>
       </c>
       <c r="N21" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 35 m</v>
+        <f t="shared" si="3"/>
+        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 30 WTG</v>
       </c>
       <c r="O21" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
       <c r="P21" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>PJa</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCWINOFF45</v>
+        <f>M22</f>
+        <v>FTE-ELCSOL</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="4"/>
-        <v>WINOFF45</v>
+        <f>RIGHT(C22,3)</f>
+        <v>SOL</v>
       </c>
       <c r="C22" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v>ELCWINOFF45</v>
-      </c>
+        <f>M9</f>
+        <v>ELCSOL</v>
+      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="25">
         <v>1</v>
       </c>
@@ -4036,36 +4037,34 @@
         <v>100</v>
       </c>
       <c r="M22" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>FTE-ELCWINOFF45</v>
+        <f>"FTE"&amp;$J$2&amp;"-"&amp;M9</f>
+        <v>FTE-ELCSOL</v>
       </c>
       <c r="N22" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 45 m</v>
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N9</f>
+        <v>Sector Fuel Technology  Electricity Plants Solar Energy</v>
       </c>
       <c r="O22" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f>$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P22" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>PJa</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="str">
+      <c r="A23" t="str">
         <f>M23</f>
-        <v>FTE-ELCSOL</v>
-      </c>
-      <c r="B23" t="str">
-        <f>RIGHT(C23,3)</f>
-        <v>SOL</v>
-      </c>
-      <c r="C23" s="24" t="str">
+        <v>FTE-ELCGAS</v>
+      </c>
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="12" t="str">
         <f>M10</f>
-        <v>ELCSOL</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>ELCGAS</v>
+      </c>
       <c r="E23" s="25">
         <v>1</v>
       </c>
@@ -4078,63 +4077,22 @@
       <c r="H23" s="25">
         <v>100</v>
       </c>
-      <c r="M23" s="12" t="str">
-        <f>"FTE"&amp;$J$2&amp;"-"&amp;M10</f>
-        <v>FTE-ELCSOL</v>
+      <c r="M23" t="s">
+        <v>161</v>
       </c>
       <c r="N23" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N10</f>
-        <v>Sector Fuel Technology  Electricity Plants Solar Energy</v>
-      </c>
-      <c r="O23" s="12" t="str">
-        <f>$D$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="P23" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>PJa</v>
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;N10</f>
+        <v>Sector Fuel Technology Existing Sector Fuel Natural Gas</v>
+      </c>
+      <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s">
+        <v>162</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
-        <f>M24</f>
-        <v>FTE-ELCGAS</v>
-      </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="12" t="str">
-        <f>M11</f>
-        <v>ELCGAS</v>
-      </c>
-      <c r="E24" s="25">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2021</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="25">
-        <v>100</v>
-      </c>
-      <c r="M24" t="s">
-        <v>161</v>
-      </c>
-      <c r="N24" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;N11</f>
-        <v>Sector Fuel Technology Existing Sector Fuel Natural Gas</v>
-      </c>
-      <c r="O24" t="s">
-        <v>59</v>
-      </c>
-      <c r="P24" t="s">
-        <v>162</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4147,7 +4105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -4673,7 +4631,7 @@
         <v>ELCTEGAS00</v>
       </c>
       <c r="C14" s="14" t="str">
-        <f>Sector_Fuels_ELC!$C$24</f>
+        <f>Sector_Fuels_ELC!$C$23</f>
         <v>ELCGAS</v>
       </c>
       <c r="D14" s="24" t="str">
@@ -4805,7 +4763,7 @@
       </c>
       <c r="S16" s="12"/>
       <c r="T16" t="str">
-        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$M$11,3)&amp;"00"</f>
+        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$M$10,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
       <c r="U16" t="str">
@@ -5830,7 +5788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17BA09-D62E-4FF5-A859-9DF747FE7B8C}">
   <dimension ref="B3:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5871,7 +5829,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="70" t="str">
-        <f>Sector_Fuels_ELC!M11</f>
+        <f>Sector_Fuels_ELC!M10</f>
         <v>ELCGAS</v>
       </c>
       <c r="E6" s="71"/>
@@ -5910,7 +5868,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="83"/>
@@ -5925,7 +5883,7 @@
         <v>55000000</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
@@ -5940,7 +5898,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
@@ -5951,7 +5909,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L16" s="83" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M16" s="83"/>
       <c r="N16" s="83"/>

--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD4FDB-1174-4FD0-BFFB-D8C0C3677DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB6EAB1-5872-4CF2-AD07-EE594FD9E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1605,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3062,7 +3068,7 @@
       <sheetName val="Pri_GAS"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="5">
           <cell r="J5" t="str">
             <v>WINON</v>
@@ -3074,7 +3080,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3345,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3548,7 +3554,7 @@
         <v>201</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" ref="O6:O10" si="0">$D$2</f>
+        <f t="shared" ref="O6:O9" si="0">$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P6" s="12"/>
@@ -3923,7 +3929,7 @@
         <v>PJ</v>
       </c>
       <c r="P19" s="12" t="str">
-        <f t="shared" ref="P19:P23" si="1">$D$2&amp;"a"</f>
+        <f t="shared" ref="P19:P22" si="1">$D$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="Q19" s="12"/>
@@ -3955,15 +3961,15 @@
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="M20" s="12" t="str">
-        <f t="shared" ref="M20:M22" si="2">"FT"&amp;$F$2&amp;"-"&amp;M7</f>
+        <f t="shared" ref="M20:M21" si="2">"FT"&amp;$F$2&amp;"-"&amp;M7</f>
         <v>FTE-ELCWINOFF20</v>
       </c>
       <c r="N20" s="13" t="str">
-        <f t="shared" ref="N20:N22" si="3">$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
+        <f t="shared" ref="N20:N21" si="3">$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
         <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore 20 WTG</v>
       </c>
       <c r="O20" s="12" t="str">
-        <f t="shared" ref="O20:O22" si="4">$D$2</f>
+        <f t="shared" ref="O20:O21" si="4">$D$2</f>
         <v>PJ</v>
       </c>
       <c r="P20" s="12" t="str">
@@ -4095,6 +4101,7 @@
       <c r="S23" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/VT_REG1_ELC_K04.xlsx
+++ b/VT_REG1_ELC_K04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB6EAB1-5872-4CF2-AD07-EE594FD9E8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4606A6C-6F8A-487D-A42B-B2D09F31D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels_ELC" sheetId="1" r:id="rId1"/>
@@ -1291,9 +1291,6 @@
     <t>GAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Gas turbine is added from a demo. </t>
-  </si>
-  <si>
     <t>*ENV_ACT</t>
   </si>
   <si>
@@ -1431,6 +1428,9 @@
   </si>
   <si>
     <t>Electricity Plants Wind Energy Offshore 30 WTG</t>
+  </si>
+  <si>
+    <t>Old variations</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1605,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1864,7 +1865,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -2015,6 +2016,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="20 % - Farve5" xfId="4" builtinId="46"/>
@@ -2170,420 +2172,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Tekstfelt 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0996764-9030-5715-603B-02B110553B67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="3802380"/>
-          <a:ext cx="1783080" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>These are</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>the technologies</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t> currently available</a:t>
-          </a:r>
-          <a:endParaRPr lang="da-DK" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>98637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>253365</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30B1015-2115-4891-8EB0-A03E2C4895A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14005560" y="6240357"/>
-          <a:ext cx="7980045" cy="1603163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Define each "new"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power plants (FI_Process table).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare technology</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> attributes (FI_T) such as INVCOST. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Existing technologies are defined in the base-year template while new fuel technologies are</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> defined here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Duplicate definition should be avoided. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vintaging ELCTNGAS00 in the FI_PROCESS setting YES cellW15 and then specifing data by year in table FI_T (column Year. In this example EFF is vintaged for periods 2006 to 2020.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>480061</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>270511</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27280D9-2ACB-4045-84B0-8CAB92D62718}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14013181" y="7871460"/>
-          <a:ext cx="7989570" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The ELCTNOIL00 can be installed from the base year to cover</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> the additional capacity needed for the reserve equation (5%)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -2735,36 +2323,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>Efficiency also drops across lifetime, but slowly. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>ELCRNWSUN01 is --- </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>ELCRNWSUN02 is --- </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>ELCRNWIND01 is -- </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="da-DK" sz="1100"/>
             <a:t>Variable costs added to onshore</a:t>
           </a:r>
@@ -2875,21 +2433,6 @@
         </a:p>
         <a:p>
           <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Value gotten from Demo models. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -2965,7 +2508,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Which is calculated to the side:</a:t>
+            <a:t>Which is calculated to the side.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3351,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="B2" zoomScale="86" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3416,7 +2959,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
@@ -3438,7 +2981,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K3" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>9</v>
@@ -3465,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="W3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3505,7 +3048,7 @@
         <v>24</v>
       </c>
       <c r="W4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -3535,7 +3078,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="W5" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -3548,10 +3091,10 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" ref="O6:O9" si="0">$D$2</f>
@@ -3562,7 +3105,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="W6" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -3573,17 +3116,17 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -3594,10 +3137,10 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="M8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3663,14 +3206,14 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="K11" s="79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="79"/>
       <c r="M11" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="N11" s="79" t="s">
         <v>181</v>
-      </c>
-      <c r="N11" s="79" t="s">
-        <v>182</v>
       </c>
       <c r="O11" s="79" t="s">
         <v>99</v>
@@ -3734,7 +3277,7 @@
         <v>82</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="80" t="s">
         <v>86</v>
@@ -3825,10 +3368,7 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22" t="str">
-        <f>E2&amp;"a"</f>
-        <v>M€2022a</v>
-      </c>
+      <c r="G17" s="22"/>
       <c r="H17" s="82"/>
       <c r="K17" s="9" t="s">
         <v>56</v>
@@ -3894,13 +3434,13 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3938,13 +3478,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3979,13 +3519,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4112,8 +3652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4293,7 +3833,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>9</v>
@@ -4418,7 +3958,7 @@
         <v>59</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>148</v>
@@ -4502,7 +4042,7 @@
         <v>82</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>32</v>
@@ -4511,7 +4051,7 @@
         <v>33</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>83</v>
@@ -4529,7 +4069,7 @@
         <v>160</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>87</v>
@@ -4785,10 +4325,6 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="O17">
-        <f>R47/P14</f>
-        <v>0.59677828513444953</v>
-      </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="5"/>
       <c r="S17" s="12"/>
@@ -4986,6 +4522,9 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
+      <c r="R24" s="84" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
@@ -4996,9 +4535,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="51" t="s">
-        <v>164</v>
-      </c>
+      <c r="I25" s="51"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="52"/>
@@ -5492,7 +5029,7 @@
         <v>18.82</v>
       </c>
       <c r="S45" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T45" s="14"/>
     </row>
@@ -5524,7 +5061,7 @@
         <v>18820000</v>
       </c>
       <c r="S46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5555,7 +5092,7 @@
         <v>18.82</v>
       </c>
       <c r="S47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -5795,8 +5332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17BA09-D62E-4FF5-A859-9DF747FE7B8C}">
   <dimension ref="B3:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5806,7 +5343,7 @@
   <sheetData>
     <row r="3" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B3" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -5827,7 +5364,7 @@
     </row>
     <row r="5" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="69"/>
     </row>
@@ -5849,7 +5386,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
@@ -5875,7 +5412,7 @@
         <v>55</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="83"/>
@@ -5890,7 +5427,7 @@
         <v>55000000</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
@@ -5905,7 +5442,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
@@ -5916,7 +5453,7 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="L16" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M16" s="83"/>
       <c r="N16" s="83"/>
@@ -5989,13 +5526,13 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="75"/>
       <c r="C23" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
